--- a/Mifos Automation Excels/Client/2530-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2530-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Newcreateloan1.xlsx
@@ -200,7 +200,7 @@
     <t>validaterepaymentschedule</t>
   </si>
   <si>
-    <t>2530-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST</t>
+    <t>2530-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-1st</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
